--- a/src/Import_inquiry_template.xlsx
+++ b/src/Import_inquiry_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalorms\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\php\src\unittest\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53703F88-ADD4-46B5-AC1B-5E24B96714F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB87931F-A0B9-4CF5-A08F-F89EA600B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
   <si>
     <t>Inquiry No</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>JED-ECA-012</t>
-  </si>
-  <si>
     <t>YA118B940 G08L50</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>EYML3101</t>
-  </si>
-  <si>
     <t>YA118B940 G10L11</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>CAR SILL</t>
   </si>
   <si>
-    <t>EYML3105</t>
-  </si>
-  <si>
     <t>ACCESSORIES CAR</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t xml:space="preserve">LANDING SILL </t>
   </si>
   <si>
-    <t>EYML3102</t>
-  </si>
-  <si>
     <t>YA118B940 G01L11</t>
   </si>
   <si>
@@ -224,6 +212,12 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>EXS822014</t>
+  </si>
+  <si>
+    <t>T-MET-25-A0001</t>
   </si>
 </sst>
 </file>
@@ -587,12 +581,12 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
@@ -638,28 +632,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J2">
         <v>182</v>
@@ -667,28 +661,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>182</v>
@@ -696,28 +690,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>182</v>
@@ -725,28 +719,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>182</v>
@@ -754,31 +748,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>183</v>
@@ -786,28 +780,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>183</v>
@@ -815,28 +809,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>184</v>
@@ -844,28 +838,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J9">
         <v>184</v>
@@ -873,28 +867,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>184</v>
@@ -902,28 +896,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J11">
         <v>184</v>
@@ -931,28 +925,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J12">
         <v>371</v>
@@ -960,28 +954,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>182</v>
@@ -989,28 +983,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>182</v>
@@ -1018,28 +1012,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <v>182</v>
@@ -1047,28 +1041,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J16">
         <v>182</v>
@@ -1076,31 +1070,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>183</v>
@@ -1108,31 +1102,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J18">
         <v>183</v>
@@ -1140,28 +1134,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J19">
         <v>184</v>
@@ -1169,28 +1163,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J20">
         <v>184</v>
@@ -1198,28 +1192,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J21">
         <v>184</v>
@@ -1227,28 +1221,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J22">
         <v>184</v>
@@ -1256,28 +1250,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J23">
         <v>371</v>
@@ -1285,28 +1279,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>182</v>
@@ -1314,28 +1308,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>182</v>
@@ -1343,28 +1337,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J26">
         <v>182</v>
@@ -1372,28 +1366,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>182</v>
@@ -1401,31 +1395,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>183</v>
@@ -1433,28 +1427,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>183</v>
@@ -1462,28 +1456,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>184</v>
@@ -1491,28 +1485,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>184</v>
@@ -1520,28 +1514,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>184</v>
@@ -1549,28 +1543,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>184</v>
@@ -1578,28 +1572,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>371</v>
